--- a/data/Article/Supplementary/Suppl_9_GrowthRates.xlsx
+++ b/data/Article/Supplementary/Suppl_9_GrowthRates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2229v1" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="70">
   <si>
     <t xml:space="preserve">Metadata: Key</t>
   </si>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">LV11_glc20</t>
   </si>
   <si>
-    <t xml:space="preserve">U. maydis FB! / 2196</t>
+    <t xml:space="preserve">U. maydis FB1 / 2196</t>
   </si>
   <si>
     <t xml:space="preserve">Concentration</t>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t xml:space="preserve">2196_glc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U. maydis FB1 / 2196</t>
   </si>
   <si>
     <t xml:space="preserve">2196_glyc</t>
@@ -256,11 +253,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -282,12 +280,20 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -353,7 +359,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -384,7 +390,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.72"/>
   </cols>
@@ -635,7 +641,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.67"/>
   </cols>
@@ -651,22 +657,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>0</v>
@@ -761,7 +767,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>27</v>
@@ -790,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>47</v>
@@ -888,7 +894,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1250,7 +1256,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.67"/>
   </cols>
@@ -1266,22 +1272,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>0</v>
@@ -1376,7 +1382,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>27</v>
@@ -1405,7 +1411,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>47</v>
@@ -1503,7 +1509,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1865,7 +1871,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.67"/>
   </cols>
@@ -1881,31 +1887,31 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>0</v>
@@ -2027,7 +2033,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>27</v>
@@ -2065,7 +2071,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>47</v>
@@ -2171,7 +2177,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2211,7 +2217,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2561,7 +2567,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.67"/>
   </cols>
@@ -2577,22 +2583,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,7 +2606,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
@@ -2629,7 +2635,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>24</v>
@@ -2658,7 +2664,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>48</v>
@@ -2714,7 +2720,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>96</v>
@@ -2743,7 +2749,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>120</v>
@@ -2835,7 +2841,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -3092,7 +3098,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.67"/>
   </cols>
@@ -3108,22 +3114,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3131,7 +3137,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
@@ -3160,7 +3166,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>24</v>
@@ -3189,7 +3195,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>48</v>
@@ -3245,7 +3251,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>96</v>
@@ -3274,7 +3280,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>117</v>
@@ -3366,7 +3372,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -3623,7 +3629,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.72"/>
   </cols>
@@ -3945,7 +3951,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.72"/>
   </cols>
@@ -4267,7 +4273,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.72"/>
   </cols>
@@ -4589,7 +4595,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.72"/>
   </cols>
@@ -4907,11 +4913,11 @@
   </sheetPr>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.67"/>
   </cols>
@@ -5466,7 +5472,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.67"/>
   </cols>
@@ -5605,7 +5611,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>24</v>
@@ -6003,7 +6009,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.67"/>
   </cols>
@@ -6040,7 +6046,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
@@ -6142,7 +6148,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>24</v>
@@ -6194,7 +6200,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>43</v>
@@ -6590,11 +6596,11 @@
   </sheetPr>
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.67"/>
   </cols>
@@ -6610,22 +6616,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6633,7 +6639,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>0</v>
@@ -6720,7 +6726,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>27</v>
@@ -6750,7 +6756,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>47</v>
@@ -6848,7 +6854,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
